--- a/lecture/lecture4/Slide141.xlsx
+++ b/lecture/lecture4/Slide141.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
                     <c:v>$F$1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>$F$1</c:v>
+                    <c:v>$C$2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>$C$2</c:v>
@@ -3204,16 +3204,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16.0</c:v>
@@ -3222,16 +3222,16 @@
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44.0</c:v>
@@ -3246,28 +3246,28 @@
                   <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>112.0</c:v>
@@ -3294,52 +3294,52 @@
                   <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>161.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>164.0</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>165.0</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>172.0</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>173.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>176.0</c:v>
+                  <c:v>208.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>177.0</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>192.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>193.0</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>196.0</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>197.0</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>204.0</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>205.0</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>208.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>209.0</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>272.0</c:v>
@@ -3390,100 +3390,100 @@
                   <c:v>321.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>384.0</c:v>
+                  <c:v>448.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>385.0</c:v>
+                  <c:v>449.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>388.0</c:v>
+                  <c:v>452.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>389.0</c:v>
+                  <c:v>453.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>396.0</c:v>
+                  <c:v>460.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>397.0</c:v>
+                  <c:v>461.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>400.0</c:v>
+                  <c:v>464.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>401.0</c:v>
+                  <c:v>465.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>416.0</c:v>
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>417.0</c:v>
+                  <c:v>481.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>420.0</c:v>
+                  <c:v>484.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>421.0</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>428.0</c:v>
+                  <c:v>492.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>429.0</c:v>
+                  <c:v>493.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>432.0</c:v>
+                  <c:v>496.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>433.0</c:v>
+                  <c:v>497.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>464.0</c:v>
+                  <c:v>528.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>465.0</c:v>
+                  <c:v>529.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>468.0</c:v>
+                  <c:v>532.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>469.0</c:v>
+                  <c:v>533.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>476.0</c:v>
+                  <c:v>540.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>477.0</c:v>
+                  <c:v>541.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>480.0</c:v>
+                  <c:v>544.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>481.0</c:v>
+                  <c:v>545.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>496.0</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>497.0</c:v>
+                  <c:v>561.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>500.0</c:v>
+                  <c:v>564.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>501.0</c:v>
+                  <c:v>565.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>508.0</c:v>
+                  <c:v>572.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>509.0</c:v>
+                  <c:v>573.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>512.0</c:v>
+                  <c:v>576.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>513.0</c:v>
+                  <c:v>577.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>640.0</c:v>
@@ -3582,196 +3582,196 @@
                   <c:v>769.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>896.0</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>897.0</c:v>
+                  <c:v>1025.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>900.0</c:v>
+                  <c:v>1028.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>901.0</c:v>
+                  <c:v>1029.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>908.0</c:v>
+                  <c:v>1036.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>909.0</c:v>
+                  <c:v>1037.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>912.0</c:v>
+                  <c:v>1040.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>913.0</c:v>
+                  <c:v>1041.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>928.0</c:v>
+                  <c:v>1056.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>929.0</c:v>
+                  <c:v>1057.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>932.0</c:v>
+                  <c:v>1060.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>933.0</c:v>
+                  <c:v>1061.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>940.0</c:v>
+                  <c:v>1068.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>941.0</c:v>
+                  <c:v>1069.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>944.0</c:v>
+                  <c:v>1072.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>945.0</c:v>
+                  <c:v>1073.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>976.0</c:v>
+                  <c:v>1104.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>977.0</c:v>
+                  <c:v>1105.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>980.0</c:v>
+                  <c:v>1108.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>981.0</c:v>
+                  <c:v>1109.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>988.0</c:v>
+                  <c:v>1116.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>989.0</c:v>
+                  <c:v>1117.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>992.0</c:v>
+                  <c:v>1120.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>993.0</c:v>
+                  <c:v>1121.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1008.0</c:v>
+                  <c:v>1136.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1009.0</c:v>
+                  <c:v>1137.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1012.0</c:v>
+                  <c:v>1140.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1013.0</c:v>
+                  <c:v>1141.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1020.0</c:v>
+                  <c:v>1148.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1021.0</c:v>
+                  <c:v>1149.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1024.0</c:v>
+                  <c:v>1152.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1025.0</c:v>
+                  <c:v>1153.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1088.0</c:v>
+                  <c:v>1216.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1089.0</c:v>
+                  <c:v>1217.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1092.0</c:v>
+                  <c:v>1220.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1093.0</c:v>
+                  <c:v>1221.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1100.0</c:v>
+                  <c:v>1228.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1101.0</c:v>
+                  <c:v>1229.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1104.0</c:v>
+                  <c:v>1232.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1105.0</c:v>
+                  <c:v>1233.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1120.0</c:v>
+                  <c:v>1248.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1121.0</c:v>
+                  <c:v>1249.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1124.0</c:v>
+                  <c:v>1252.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1125.0</c:v>
+                  <c:v>1253.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1132.0</c:v>
+                  <c:v>1260.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1133.0</c:v>
+                  <c:v>1261.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1136.0</c:v>
+                  <c:v>1264.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1137.0</c:v>
+                  <c:v>1265.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1168.0</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1169.0</c:v>
+                  <c:v>1297.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1172.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1173.0</c:v>
+                  <c:v>1301.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1180.0</c:v>
+                  <c:v>1308.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1181.0</c:v>
+                  <c:v>1309.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1184.0</c:v>
+                  <c:v>1312.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1185.0</c:v>
+                  <c:v>1313.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1200.0</c:v>
+                  <c:v>1328.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1201.0</c:v>
+                  <c:v>1329.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1204.0</c:v>
+                  <c:v>1332.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1205.0</c:v>
+                  <c:v>1333.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1212.0</c:v>
+                  <c:v>1340.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1213.0</c:v>
+                  <c:v>1341.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1216.0</c:v>
+                  <c:v>1344.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1217.0</c:v>
+                  <c:v>1345.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>1472.0</c:v>
@@ -3966,388 +3966,388 @@
                   <c:v>1793.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2048.0</c:v>
+                  <c:v>2304.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2049.0</c:v>
+                  <c:v>2305.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2052.0</c:v>
+                  <c:v>2308.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2053.0</c:v>
+                  <c:v>2309.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2060.0</c:v>
+                  <c:v>2316.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2061.0</c:v>
+                  <c:v>2317.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2064.0</c:v>
+                  <c:v>2320.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2065.0</c:v>
+                  <c:v>2321.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2080.0</c:v>
+                  <c:v>2336.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2081.0</c:v>
+                  <c:v>2337.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2084.0</c:v>
+                  <c:v>2340.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2085.0</c:v>
+                  <c:v>2341.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2092.0</c:v>
+                  <c:v>2348.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2093.0</c:v>
+                  <c:v>2349.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2096.0</c:v>
+                  <c:v>2352.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2097.0</c:v>
+                  <c:v>2353.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2128.0</c:v>
+                  <c:v>2384.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2129.0</c:v>
+                  <c:v>2385.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2132.0</c:v>
+                  <c:v>2388.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2133.0</c:v>
+                  <c:v>2389.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2140.0</c:v>
+                  <c:v>2396.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2141.0</c:v>
+                  <c:v>2397.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2144.0</c:v>
+                  <c:v>2400.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2145.0</c:v>
+                  <c:v>2401.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2160.0</c:v>
+                  <c:v>2416.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2161.0</c:v>
+                  <c:v>2417.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2164.0</c:v>
+                  <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2165.0</c:v>
+                  <c:v>2421.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2172.0</c:v>
+                  <c:v>2428.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2173.0</c:v>
+                  <c:v>2429.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2176.0</c:v>
+                  <c:v>2432.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2177.0</c:v>
+                  <c:v>2433.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2240.0</c:v>
+                  <c:v>2496.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2241.0</c:v>
+                  <c:v>2497.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2244.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2245.0</c:v>
+                  <c:v>2501.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2252.0</c:v>
+                  <c:v>2508.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2253.0</c:v>
+                  <c:v>2509.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2256.0</c:v>
+                  <c:v>2512.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2257.0</c:v>
+                  <c:v>2513.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2272.0</c:v>
+                  <c:v>2528.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2273.0</c:v>
+                  <c:v>2529.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2276.0</c:v>
+                  <c:v>2532.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2277.0</c:v>
+                  <c:v>2533.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2284.0</c:v>
+                  <c:v>2540.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>2285.0</c:v>
+                  <c:v>2541.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>2288.0</c:v>
+                  <c:v>2544.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>2289.0</c:v>
+                  <c:v>2545.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>2320.0</c:v>
+                  <c:v>2576.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>2321.0</c:v>
+                  <c:v>2577.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>2324.0</c:v>
+                  <c:v>2580.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>2325.0</c:v>
+                  <c:v>2581.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>2332.0</c:v>
+                  <c:v>2588.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>2333.0</c:v>
+                  <c:v>2589.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>2336.0</c:v>
+                  <c:v>2592.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>2337.0</c:v>
+                  <c:v>2593.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>2352.0</c:v>
+                  <c:v>2608.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>2353.0</c:v>
+                  <c:v>2609.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>2356.0</c:v>
+                  <c:v>2612.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>2357.0</c:v>
+                  <c:v>2613.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>2364.0</c:v>
+                  <c:v>2620.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>2365.0</c:v>
+                  <c:v>2621.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>2368.0</c:v>
+                  <c:v>2624.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>2369.0</c:v>
+                  <c:v>2625.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>2496.0</c:v>
+                  <c:v>2752.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>2497.0</c:v>
+                  <c:v>2753.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>2500.0</c:v>
+                  <c:v>2756.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>2501.0</c:v>
+                  <c:v>2757.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>2508.0</c:v>
+                  <c:v>2764.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>2509.0</c:v>
+                  <c:v>2765.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>2512.0</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>2513.0</c:v>
+                  <c:v>2769.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>2528.0</c:v>
+                  <c:v>2784.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>2529.0</c:v>
+                  <c:v>2785.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>2532.0</c:v>
+                  <c:v>2788.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>2533.0</c:v>
+                  <c:v>2789.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>2540.0</c:v>
+                  <c:v>2796.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>2541.0</c:v>
+                  <c:v>2797.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>2544.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>2545.0</c:v>
+                  <c:v>2801.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>2576.0</c:v>
+                  <c:v>2832.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>2577.0</c:v>
+                  <c:v>2833.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>2580.0</c:v>
+                  <c:v>2836.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>2581.0</c:v>
+                  <c:v>2837.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>2588.0</c:v>
+                  <c:v>2844.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>2589.0</c:v>
+                  <c:v>2845.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>2592.0</c:v>
+                  <c:v>2848.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>2593.0</c:v>
+                  <c:v>2849.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>2608.0</c:v>
+                  <c:v>2864.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>2609.0</c:v>
+                  <c:v>2865.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>2612.0</c:v>
+                  <c:v>2868.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>2613.0</c:v>
+                  <c:v>2869.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>2620.0</c:v>
+                  <c:v>2876.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>2621.0</c:v>
+                  <c:v>2877.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>2624.0</c:v>
+                  <c:v>2880.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>2625.0</c:v>
+                  <c:v>2881.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>2688.0</c:v>
+                  <c:v>2944.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>2689.0</c:v>
+                  <c:v>2945.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>2692.0</c:v>
+                  <c:v>2948.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>2693.0</c:v>
+                  <c:v>2949.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>2700.0</c:v>
+                  <c:v>2956.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>2701.0</c:v>
+                  <c:v>2957.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>2704.0</c:v>
+                  <c:v>2960.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>2705.0</c:v>
+                  <c:v>2961.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>2720.0</c:v>
+                  <c:v>2976.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>2721.0</c:v>
+                  <c:v>2977.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>2724.0</c:v>
+                  <c:v>2980.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>2725.0</c:v>
+                  <c:v>2981.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>2732.0</c:v>
+                  <c:v>2988.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>2733.0</c:v>
+                  <c:v>2989.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>2736.0</c:v>
+                  <c:v>2992.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>2737.0</c:v>
+                  <c:v>2993.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>2768.0</c:v>
+                  <c:v>3024.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>2769.0</c:v>
+                  <c:v>3025.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>2772.0</c:v>
+                  <c:v>3028.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>2773.0</c:v>
+                  <c:v>3029.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>2780.0</c:v>
+                  <c:v>3036.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>2781.0</c:v>
+                  <c:v>3037.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>2784.0</c:v>
+                  <c:v>3040.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>2785.0</c:v>
+                  <c:v>3041.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>2800.0</c:v>
+                  <c:v>3056.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>2801.0</c:v>
+                  <c:v>3057.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>2804.0</c:v>
+                  <c:v>3060.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>2805.0</c:v>
+                  <c:v>3061.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>2812.0</c:v>
+                  <c:v>3068.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>2813.0</c:v>
+                  <c:v>3069.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>2816.0</c:v>
+                  <c:v>3072.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>2817.0</c:v>
+                  <c:v>3073.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
                   <c:v>3328.0</c:v>
@@ -4710,11 +4710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-919347040"/>
-        <c:axId val="-919342512"/>
+        <c:axId val="1735941824"/>
+        <c:axId val="1735946352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-919347040"/>
+        <c:axId val="1735941824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4770,12 +4770,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-919342512"/>
+        <c:crossAx val="1735946352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-919342512"/>
+        <c:axId val="1735946352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-919347040"/>
+        <c:crossAx val="1735941824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5737,7 +5737,7 @@
   <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+      <selection activeCell="A2" sqref="A2:C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>IF(A2&gt;2,ADDRESS(INT(A2/2)+1,3),ADDRESS(1,6))</f>
+        <f>IF(A2&gt;1,ADDRESS(INT(A2/2)+1,3),ADDRESS(1,6))</f>
         <v>$F$1</v>
       </c>
       <c r="C2">
@@ -5779,12 +5779,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B66" si="0">IF(A3&gt;2,ADDRESS(INT(A3/2)+1,3),ADDRESS(1,6))</f>
-        <v>$F$1</v>
+        <f t="shared" ref="B3:B66" si="0">IF(A3&gt;1,ADDRESS(INT(A3/2)+1,3),ADDRESS(1,6))</f>
+        <v>$C$2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C58" ca="1" si="1">2*INDIRECT(B3)+A3</f>
-        <v>2</v>
+        <f t="shared" ref="C3:C66" ca="1" si="1">2*INDIRECT(B3)+A3</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>$C$30</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:C122" ca="1" si="2">2*INDIRECT(B59)+A59</f>
+        <f t="shared" ca="1" si="1"/>
         <v>308</v>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
         <v>$C$30</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>309</v>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
         <v>$C$31</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>316</v>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>$C$31</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>317</v>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
         <v>$C$32</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>320</v>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
         <v>$C$32</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>321</v>
       </c>
     </row>
@@ -6589,8 +6589,8 @@
         <v>$C$33</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="2"/>
-        <v>384</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -6602,8 +6602,8 @@
         <v>$C$33</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="2"/>
-        <v>385</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -6611,12 +6611,12 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" ref="B67:B130" si="3">IF(A67&gt;2,ADDRESS(INT(A67/2)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B67:B130" si="2">IF(A67&gt;1,ADDRESS(INT(A67/2)+1,3),ADDRESS(1,6))</f>
         <v>$C$34</v>
       </c>
       <c r="C67">
-        <f t="shared" ca="1" si="2"/>
-        <v>388</v>
+        <f t="shared" ref="C67:C130" ca="1" si="3">2*INDIRECT(B67)+A67</f>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -6624,12 +6624,12 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$34</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="2"/>
-        <v>389</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -6637,12 +6637,12 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$35</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="2"/>
-        <v>396</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -6650,12 +6650,12 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$35</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="2"/>
-        <v>397</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -6663,12 +6663,12 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$36</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -6676,12 +6676,12 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$36</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="2"/>
-        <v>401</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -6689,12 +6689,12 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$37</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="2"/>
-        <v>416</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -6702,12 +6702,12 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$37</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="2"/>
-        <v>417</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -6715,12 +6715,12 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$38</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="2"/>
-        <v>420</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -6728,12 +6728,12 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$38</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="2"/>
-        <v>421</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -6741,12 +6741,12 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$39</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="2"/>
-        <v>428</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -6754,12 +6754,12 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$39</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="2"/>
-        <v>429</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -6767,12 +6767,12 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$40</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="2"/>
-        <v>432</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -6780,12 +6780,12 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$40</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="2"/>
-        <v>433</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -6793,12 +6793,12 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$41</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="2"/>
-        <v>464</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -6806,12 +6806,12 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$41</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="2"/>
-        <v>465</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -6819,12 +6819,12 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$42</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="2"/>
-        <v>468</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -6832,12 +6832,12 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$42</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="2"/>
-        <v>469</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>533</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -6845,12 +6845,12 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$43</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="2"/>
-        <v>476</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -6858,12 +6858,12 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$43</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="2"/>
-        <v>477</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -6871,12 +6871,12 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$44</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="2"/>
-        <v>480</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -6884,12 +6884,12 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$44</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="2"/>
-        <v>481</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>545</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -6897,12 +6897,12 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$45</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="2"/>
-        <v>496</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>560</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -6910,12 +6910,12 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$45</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="2"/>
-        <v>497</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -6923,12 +6923,12 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$46</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -6936,12 +6936,12 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$46</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="2"/>
-        <v>501</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -6949,12 +6949,12 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$47</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="2"/>
-        <v>508</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -6962,12 +6962,12 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$47</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="2"/>
-        <v>509</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -6975,12 +6975,12 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$48</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="2"/>
-        <v>512</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -6988,12 +6988,12 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$48</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="2"/>
-        <v>513</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -7001,11 +7001,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$49</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>640</v>
       </c>
     </row>
@@ -7014,11 +7014,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$49</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>641</v>
       </c>
     </row>
@@ -7027,11 +7027,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$50</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>644</v>
       </c>
     </row>
@@ -7040,11 +7040,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$50</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>645</v>
       </c>
     </row>
@@ -7053,11 +7053,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$51</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>652</v>
       </c>
     </row>
@@ -7066,11 +7066,11 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$51</v>
       </c>
       <c r="C102">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>653</v>
       </c>
     </row>
@@ -7079,11 +7079,11 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$52</v>
       </c>
       <c r="C103">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>656</v>
       </c>
     </row>
@@ -7092,11 +7092,11 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$52</v>
       </c>
       <c r="C104">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>657</v>
       </c>
     </row>
@@ -7105,11 +7105,11 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$53</v>
       </c>
       <c r="C105">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>672</v>
       </c>
     </row>
@@ -7118,11 +7118,11 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$53</v>
       </c>
       <c r="C106">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>673</v>
       </c>
     </row>
@@ -7131,11 +7131,11 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$54</v>
       </c>
       <c r="C107">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>676</v>
       </c>
     </row>
@@ -7144,11 +7144,11 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$54</v>
       </c>
       <c r="C108">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>677</v>
       </c>
     </row>
@@ -7157,11 +7157,11 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$55</v>
       </c>
       <c r="C109">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>684</v>
       </c>
     </row>
@@ -7170,11 +7170,11 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$55</v>
       </c>
       <c r="C110">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>685</v>
       </c>
     </row>
@@ -7183,11 +7183,11 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$56</v>
       </c>
       <c r="C111">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>688</v>
       </c>
     </row>
@@ -7196,11 +7196,11 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$56</v>
       </c>
       <c r="C112">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>689</v>
       </c>
     </row>
@@ -7209,11 +7209,11 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$57</v>
       </c>
       <c r="C113">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>720</v>
       </c>
     </row>
@@ -7222,11 +7222,11 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$57</v>
       </c>
       <c r="C114">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>721</v>
       </c>
     </row>
@@ -7235,11 +7235,11 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$58</v>
       </c>
       <c r="C115">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>724</v>
       </c>
     </row>
@@ -7248,11 +7248,11 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$58</v>
       </c>
       <c r="C116">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>725</v>
       </c>
     </row>
@@ -7261,11 +7261,11 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$59</v>
       </c>
       <c r="C117">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>732</v>
       </c>
     </row>
@@ -7274,11 +7274,11 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$59</v>
       </c>
       <c r="C118">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>733</v>
       </c>
     </row>
@@ -7287,11 +7287,11 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$60</v>
       </c>
       <c r="C119">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>736</v>
       </c>
     </row>
@@ -7300,11 +7300,11 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$60</v>
       </c>
       <c r="C120">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>737</v>
       </c>
     </row>
@@ -7313,11 +7313,11 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$61</v>
       </c>
       <c r="C121">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>752</v>
       </c>
     </row>
@@ -7326,11 +7326,11 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$61</v>
       </c>
       <c r="C122">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>753</v>
       </c>
     </row>
@@ -7339,11 +7339,11 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$62</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:C186" ca="1" si="4">2*INDIRECT(B123)+A123</f>
+        <f t="shared" ca="1" si="3"/>
         <v>756</v>
       </c>
     </row>
@@ -7352,11 +7352,11 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$62</v>
       </c>
       <c r="C124">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>757</v>
       </c>
     </row>
@@ -7365,11 +7365,11 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$63</v>
       </c>
       <c r="C125">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>764</v>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$63</v>
       </c>
       <c r="C126">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>765</v>
       </c>
     </row>
@@ -7391,11 +7391,11 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$64</v>
       </c>
       <c r="C127">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>768</v>
       </c>
     </row>
@@ -7404,11 +7404,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$64</v>
       </c>
       <c r="C128">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>769</v>
       </c>
     </row>
@@ -7417,12 +7417,12 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$65</v>
       </c>
       <c r="C129">
-        <f t="shared" ca="1" si="4"/>
-        <v>896</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1024</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -7430,12 +7430,12 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$C$65</v>
       </c>
       <c r="C130">
-        <f t="shared" ca="1" si="4"/>
-        <v>897</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1025</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -7443,12 +7443,12 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f t="shared" ref="B131:B194" si="5">IF(A131&gt;2,ADDRESS(INT(A131/2)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B131:B194" si="4">IF(A131&gt;1,ADDRESS(INT(A131/2)+1,3),ADDRESS(1,6))</f>
         <v>$C$66</v>
       </c>
       <c r="C131">
-        <f t="shared" ca="1" si="4"/>
-        <v>900</v>
+        <f t="shared" ref="C131:C194" ca="1" si="5">2*INDIRECT(B131)+A131</f>
+        <v>1028</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -7456,12 +7456,12 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$66</v>
       </c>
       <c r="C132">
-        <f t="shared" ca="1" si="4"/>
-        <v>901</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1029</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -7469,12 +7469,12 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$67</v>
       </c>
       <c r="C133">
-        <f t="shared" ca="1" si="4"/>
-        <v>908</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1036</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -7482,12 +7482,12 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$67</v>
       </c>
       <c r="C134">
-        <f t="shared" ca="1" si="4"/>
-        <v>909</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1037</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7495,12 +7495,12 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$68</v>
       </c>
       <c r="C135">
-        <f t="shared" ca="1" si="4"/>
-        <v>912</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1040</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -7508,12 +7508,12 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$68</v>
       </c>
       <c r="C136">
-        <f t="shared" ca="1" si="4"/>
-        <v>913</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1041</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -7521,12 +7521,12 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$69</v>
       </c>
       <c r="C137">
-        <f t="shared" ca="1" si="4"/>
-        <v>928</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1056</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -7534,12 +7534,12 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$69</v>
       </c>
       <c r="C138">
-        <f t="shared" ca="1" si="4"/>
-        <v>929</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1057</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -7547,12 +7547,12 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$70</v>
       </c>
       <c r="C139">
-        <f t="shared" ca="1" si="4"/>
-        <v>932</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1060</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -7560,12 +7560,12 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$70</v>
       </c>
       <c r="C140">
-        <f t="shared" ca="1" si="4"/>
-        <v>933</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1061</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -7573,12 +7573,12 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$71</v>
       </c>
       <c r="C141">
-        <f t="shared" ca="1" si="4"/>
-        <v>940</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1068</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -7586,12 +7586,12 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$71</v>
       </c>
       <c r="C142">
-        <f t="shared" ca="1" si="4"/>
-        <v>941</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1069</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -7599,12 +7599,12 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$72</v>
       </c>
       <c r="C143">
-        <f t="shared" ca="1" si="4"/>
-        <v>944</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1072</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -7612,12 +7612,12 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$72</v>
       </c>
       <c r="C144">
-        <f t="shared" ca="1" si="4"/>
-        <v>945</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1073</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -7625,12 +7625,12 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$73</v>
       </c>
       <c r="C145">
-        <f t="shared" ca="1" si="4"/>
-        <v>976</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1104</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -7638,12 +7638,12 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$73</v>
       </c>
       <c r="C146">
-        <f t="shared" ca="1" si="4"/>
-        <v>977</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1105</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -7651,12 +7651,12 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$74</v>
       </c>
       <c r="C147">
-        <f t="shared" ca="1" si="4"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1108</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -7664,12 +7664,12 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$74</v>
       </c>
       <c r="C148">
-        <f t="shared" ca="1" si="4"/>
-        <v>981</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1109</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -7677,12 +7677,12 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$75</v>
       </c>
       <c r="C149">
-        <f t="shared" ca="1" si="4"/>
-        <v>988</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1116</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -7690,12 +7690,12 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$75</v>
       </c>
       <c r="C150">
-        <f t="shared" ca="1" si="4"/>
-        <v>989</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1117</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -7703,12 +7703,12 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$76</v>
       </c>
       <c r="C151">
-        <f t="shared" ca="1" si="4"/>
-        <v>992</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1120</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -7716,12 +7716,12 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$76</v>
       </c>
       <c r="C152">
-        <f t="shared" ca="1" si="4"/>
-        <v>993</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1121</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -7729,12 +7729,12 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$77</v>
       </c>
       <c r="C153">
-        <f t="shared" ca="1" si="4"/>
-        <v>1008</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1136</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -7742,12 +7742,12 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$77</v>
       </c>
       <c r="C154">
-        <f t="shared" ca="1" si="4"/>
-        <v>1009</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1137</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -7755,12 +7755,12 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$78</v>
       </c>
       <c r="C155">
-        <f t="shared" ca="1" si="4"/>
-        <v>1012</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1140</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -7768,12 +7768,12 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$78</v>
       </c>
       <c r="C156">
-        <f t="shared" ca="1" si="4"/>
-        <v>1013</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1141</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -7781,12 +7781,12 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$79</v>
       </c>
       <c r="C157">
-        <f t="shared" ca="1" si="4"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1148</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -7794,12 +7794,12 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$79</v>
       </c>
       <c r="C158">
-        <f t="shared" ca="1" si="4"/>
-        <v>1021</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1149</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -7807,12 +7807,12 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$80</v>
       </c>
       <c r="C159">
-        <f t="shared" ca="1" si="4"/>
-        <v>1024</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1152</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -7820,12 +7820,12 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$80</v>
       </c>
       <c r="C160">
-        <f t="shared" ca="1" si="4"/>
-        <v>1025</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1153</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -7833,12 +7833,12 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$81</v>
       </c>
       <c r="C161">
-        <f t="shared" ca="1" si="4"/>
-        <v>1088</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1216</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -7846,12 +7846,12 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$81</v>
       </c>
       <c r="C162">
-        <f t="shared" ca="1" si="4"/>
-        <v>1089</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1217</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -7859,12 +7859,12 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$82</v>
       </c>
       <c r="C163">
-        <f t="shared" ca="1" si="4"/>
-        <v>1092</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -7872,12 +7872,12 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$82</v>
       </c>
       <c r="C164">
-        <f t="shared" ca="1" si="4"/>
-        <v>1093</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1221</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -7885,12 +7885,12 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$83</v>
       </c>
       <c r="C165">
-        <f t="shared" ca="1" si="4"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1228</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -7898,12 +7898,12 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$83</v>
       </c>
       <c r="C166">
-        <f t="shared" ca="1" si="4"/>
-        <v>1101</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1229</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -7911,12 +7911,12 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$84</v>
       </c>
       <c r="C167">
-        <f t="shared" ca="1" si="4"/>
-        <v>1104</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1232</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -7924,12 +7924,12 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$84</v>
       </c>
       <c r="C168">
-        <f t="shared" ca="1" si="4"/>
-        <v>1105</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1233</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -7937,12 +7937,12 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$85</v>
       </c>
       <c r="C169">
-        <f t="shared" ca="1" si="4"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1248</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -7950,12 +7950,12 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$85</v>
       </c>
       <c r="C170">
-        <f t="shared" ca="1" si="4"/>
-        <v>1121</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1249</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -7963,12 +7963,12 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$86</v>
       </c>
       <c r="C171">
-        <f t="shared" ca="1" si="4"/>
-        <v>1124</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1252</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -7976,12 +7976,12 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$86</v>
       </c>
       <c r="C172">
-        <f t="shared" ca="1" si="4"/>
-        <v>1125</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1253</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -7989,12 +7989,12 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$87</v>
       </c>
       <c r="C173">
-        <f t="shared" ca="1" si="4"/>
-        <v>1132</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -8002,12 +8002,12 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$87</v>
       </c>
       <c r="C174">
-        <f t="shared" ca="1" si="4"/>
-        <v>1133</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1261</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -8015,12 +8015,12 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$88</v>
       </c>
       <c r="C175">
-        <f t="shared" ca="1" si="4"/>
-        <v>1136</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1264</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -8028,12 +8028,12 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$88</v>
       </c>
       <c r="C176">
-        <f t="shared" ca="1" si="4"/>
-        <v>1137</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1265</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -8041,12 +8041,12 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$89</v>
       </c>
       <c r="C177">
-        <f t="shared" ca="1" si="4"/>
-        <v>1168</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1296</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -8054,12 +8054,12 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$89</v>
       </c>
       <c r="C178">
-        <f t="shared" ca="1" si="4"/>
-        <v>1169</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1297</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -8067,12 +8067,12 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$90</v>
       </c>
       <c r="C179">
-        <f t="shared" ca="1" si="4"/>
-        <v>1172</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1300</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -8080,12 +8080,12 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$90</v>
       </c>
       <c r="C180">
-        <f t="shared" ca="1" si="4"/>
-        <v>1173</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1301</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -8093,12 +8093,12 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$91</v>
       </c>
       <c r="C181">
-        <f t="shared" ca="1" si="4"/>
-        <v>1180</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1308</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -8106,12 +8106,12 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$91</v>
       </c>
       <c r="C182">
-        <f t="shared" ca="1" si="4"/>
-        <v>1181</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1309</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -8119,12 +8119,12 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$92</v>
       </c>
       <c r="C183">
-        <f t="shared" ca="1" si="4"/>
-        <v>1184</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1312</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -8132,12 +8132,12 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$92</v>
       </c>
       <c r="C184">
-        <f t="shared" ca="1" si="4"/>
-        <v>1185</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1313</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -8145,12 +8145,12 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$93</v>
       </c>
       <c r="C185">
-        <f t="shared" ca="1" si="4"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1328</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -8158,12 +8158,12 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$93</v>
       </c>
       <c r="C186">
-        <f t="shared" ca="1" si="4"/>
-        <v>1201</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1329</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -8171,12 +8171,12 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$94</v>
       </c>
       <c r="C187">
-        <f t="shared" ref="C187:C250" ca="1" si="6">2*INDIRECT(B187)+A187</f>
-        <v>1204</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1332</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -8184,12 +8184,12 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$94</v>
       </c>
       <c r="C188">
-        <f t="shared" ca="1" si="6"/>
-        <v>1205</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1333</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -8197,12 +8197,12 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$95</v>
       </c>
       <c r="C189">
-        <f t="shared" ca="1" si="6"/>
-        <v>1212</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1340</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -8210,12 +8210,12 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$95</v>
       </c>
       <c r="C190">
-        <f t="shared" ca="1" si="6"/>
-        <v>1213</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1341</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -8223,12 +8223,12 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$96</v>
       </c>
       <c r="C191">
-        <f t="shared" ca="1" si="6"/>
-        <v>1216</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1344</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -8236,12 +8236,12 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$96</v>
       </c>
       <c r="C192">
-        <f t="shared" ca="1" si="6"/>
-        <v>1217</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1345</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -8249,11 +8249,11 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$97</v>
       </c>
       <c r="C193">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1472</v>
       </c>
     </row>
@@ -8262,11 +8262,11 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>$C$97</v>
       </c>
       <c r="C194">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1473</v>
       </c>
     </row>
@@ -8275,11 +8275,11 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" ref="B195:B258" si="7">IF(A195&gt;2,ADDRESS(INT(A195/2)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B195:B258" si="6">IF(A195&gt;1,ADDRESS(INT(A195/2)+1,3),ADDRESS(1,6))</f>
         <v>$C$98</v>
       </c>
       <c r="C195">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C195:C258" ca="1" si="7">2*INDIRECT(B195)+A195</f>
         <v>1476</v>
       </c>
     </row>
@@ -8288,11 +8288,11 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$98</v>
       </c>
       <c r="C196">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1477</v>
       </c>
     </row>
@@ -8301,11 +8301,11 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$99</v>
       </c>
       <c r="C197">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1484</v>
       </c>
     </row>
@@ -8314,11 +8314,11 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$99</v>
       </c>
       <c r="C198">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1485</v>
       </c>
     </row>
@@ -8327,11 +8327,11 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$100</v>
       </c>
       <c r="C199">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1488</v>
       </c>
     </row>
@@ -8340,11 +8340,11 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$100</v>
       </c>
       <c r="C200">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1489</v>
       </c>
     </row>
@@ -8353,11 +8353,11 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$101</v>
       </c>
       <c r="C201">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1504</v>
       </c>
     </row>
@@ -8366,11 +8366,11 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$101</v>
       </c>
       <c r="C202">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1505</v>
       </c>
     </row>
@@ -8379,11 +8379,11 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$102</v>
       </c>
       <c r="C203">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1508</v>
       </c>
     </row>
@@ -8392,11 +8392,11 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$102</v>
       </c>
       <c r="C204">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1509</v>
       </c>
     </row>
@@ -8405,11 +8405,11 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$103</v>
       </c>
       <c r="C205">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1516</v>
       </c>
     </row>
@@ -8418,11 +8418,11 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$103</v>
       </c>
       <c r="C206">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1517</v>
       </c>
     </row>
@@ -8431,11 +8431,11 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$104</v>
       </c>
       <c r="C207">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1520</v>
       </c>
     </row>
@@ -8444,11 +8444,11 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$104</v>
       </c>
       <c r="C208">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1521</v>
       </c>
     </row>
@@ -8457,11 +8457,11 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$105</v>
       </c>
       <c r="C209">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1552</v>
       </c>
     </row>
@@ -8470,11 +8470,11 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$105</v>
       </c>
       <c r="C210">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1553</v>
       </c>
     </row>
@@ -8483,11 +8483,11 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$106</v>
       </c>
       <c r="C211">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1556</v>
       </c>
     </row>
@@ -8496,11 +8496,11 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$106</v>
       </c>
       <c r="C212">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1557</v>
       </c>
     </row>
@@ -8509,11 +8509,11 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$107</v>
       </c>
       <c r="C213">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1564</v>
       </c>
     </row>
@@ -8522,11 +8522,11 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$107</v>
       </c>
       <c r="C214">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1565</v>
       </c>
     </row>
@@ -8535,11 +8535,11 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$108</v>
       </c>
       <c r="C215">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1568</v>
       </c>
     </row>
@@ -8548,11 +8548,11 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$108</v>
       </c>
       <c r="C216">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1569</v>
       </c>
     </row>
@@ -8561,11 +8561,11 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$109</v>
       </c>
       <c r="C217">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1584</v>
       </c>
     </row>
@@ -8574,11 +8574,11 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$109</v>
       </c>
       <c r="C218">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1585</v>
       </c>
     </row>
@@ -8587,11 +8587,11 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$110</v>
       </c>
       <c r="C219">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1588</v>
       </c>
     </row>
@@ -8600,11 +8600,11 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$110</v>
       </c>
       <c r="C220">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1589</v>
       </c>
     </row>
@@ -8613,11 +8613,11 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$111</v>
       </c>
       <c r="C221">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1596</v>
       </c>
     </row>
@@ -8626,11 +8626,11 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$111</v>
       </c>
       <c r="C222">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1597</v>
       </c>
     </row>
@@ -8639,11 +8639,11 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$112</v>
       </c>
       <c r="C223">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1600</v>
       </c>
     </row>
@@ -8652,11 +8652,11 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$112</v>
       </c>
       <c r="C224">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1601</v>
       </c>
     </row>
@@ -8665,11 +8665,11 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$113</v>
       </c>
       <c r="C225">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1664</v>
       </c>
     </row>
@@ -8678,11 +8678,11 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$113</v>
       </c>
       <c r="C226">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1665</v>
       </c>
     </row>
@@ -8691,11 +8691,11 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$114</v>
       </c>
       <c r="C227">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1668</v>
       </c>
     </row>
@@ -8704,11 +8704,11 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$114</v>
       </c>
       <c r="C228">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1669</v>
       </c>
     </row>
@@ -8717,11 +8717,11 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$115</v>
       </c>
       <c r="C229">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1676</v>
       </c>
     </row>
@@ -8730,11 +8730,11 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$115</v>
       </c>
       <c r="C230">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1677</v>
       </c>
     </row>
@@ -8743,11 +8743,11 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$116</v>
       </c>
       <c r="C231">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1680</v>
       </c>
     </row>
@@ -8756,11 +8756,11 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$116</v>
       </c>
       <c r="C232">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1681</v>
       </c>
     </row>
@@ -8769,11 +8769,11 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$117</v>
       </c>
       <c r="C233">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1696</v>
       </c>
     </row>
@@ -8782,11 +8782,11 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$117</v>
       </c>
       <c r="C234">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1697</v>
       </c>
     </row>
@@ -8795,11 +8795,11 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$118</v>
       </c>
       <c r="C235">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1700</v>
       </c>
     </row>
@@ -8808,11 +8808,11 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$118</v>
       </c>
       <c r="C236">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1701</v>
       </c>
     </row>
@@ -8821,11 +8821,11 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$119</v>
       </c>
       <c r="C237">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1708</v>
       </c>
     </row>
@@ -8834,11 +8834,11 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$119</v>
       </c>
       <c r="C238">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1709</v>
       </c>
     </row>
@@ -8847,11 +8847,11 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$120</v>
       </c>
       <c r="C239">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1712</v>
       </c>
     </row>
@@ -8860,11 +8860,11 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$120</v>
       </c>
       <c r="C240">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1713</v>
       </c>
     </row>
@@ -8873,11 +8873,11 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$121</v>
       </c>
       <c r="C241">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1744</v>
       </c>
     </row>
@@ -8886,11 +8886,11 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$121</v>
       </c>
       <c r="C242">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1745</v>
       </c>
     </row>
@@ -8899,11 +8899,11 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$122</v>
       </c>
       <c r="C243">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1748</v>
       </c>
     </row>
@@ -8912,11 +8912,11 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$122</v>
       </c>
       <c r="C244">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1749</v>
       </c>
     </row>
@@ -8925,11 +8925,11 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$123</v>
       </c>
       <c r="C245">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1756</v>
       </c>
     </row>
@@ -8938,11 +8938,11 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$123</v>
       </c>
       <c r="C246">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1757</v>
       </c>
     </row>
@@ -8951,11 +8951,11 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$124</v>
       </c>
       <c r="C247">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1760</v>
       </c>
     </row>
@@ -8964,11 +8964,11 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$124</v>
       </c>
       <c r="C248">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1761</v>
       </c>
     </row>
@@ -8977,11 +8977,11 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$125</v>
       </c>
       <c r="C249">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1776</v>
       </c>
     </row>
@@ -8990,11 +8990,11 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$125</v>
       </c>
       <c r="C250">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1777</v>
       </c>
     </row>
@@ -9003,11 +9003,11 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$126</v>
       </c>
       <c r="C251">
-        <f t="shared" ref="C251:C314" ca="1" si="8">2*INDIRECT(B251)+A251</f>
+        <f t="shared" ca="1" si="7"/>
         <v>1780</v>
       </c>
     </row>
@@ -9016,11 +9016,11 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$126</v>
       </c>
       <c r="C252">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1781</v>
       </c>
     </row>
@@ -9029,11 +9029,11 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$127</v>
       </c>
       <c r="C253">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1788</v>
       </c>
     </row>
@@ -9042,11 +9042,11 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$127</v>
       </c>
       <c r="C254">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1789</v>
       </c>
     </row>
@@ -9055,11 +9055,11 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$128</v>
       </c>
       <c r="C255">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1792</v>
       </c>
     </row>
@@ -9068,11 +9068,11 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$128</v>
       </c>
       <c r="C256">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1793</v>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$129</v>
       </c>
       <c r="C257">
-        <f t="shared" ca="1" si="8"/>
-        <v>2048</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2304</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -9094,12 +9094,12 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>$C$129</v>
       </c>
       <c r="C258">
-        <f t="shared" ca="1" si="8"/>
-        <v>2049</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2305</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -9107,12 +9107,12 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="str">
-        <f t="shared" ref="B259:B322" si="9">IF(A259&gt;2,ADDRESS(INT(A259/2)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B259:B322" si="8">IF(A259&gt;1,ADDRESS(INT(A259/2)+1,3),ADDRESS(1,6))</f>
         <v>$C$130</v>
       </c>
       <c r="C259">
-        <f t="shared" ca="1" si="8"/>
-        <v>2052</v>
+        <f t="shared" ref="C259:C322" ca="1" si="9">2*INDIRECT(B259)+A259</f>
+        <v>2308</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -9120,12 +9120,12 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$130</v>
       </c>
       <c r="C260">
-        <f t="shared" ca="1" si="8"/>
-        <v>2053</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2309</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -9133,12 +9133,12 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$131</v>
       </c>
       <c r="C261">
-        <f t="shared" ca="1" si="8"/>
-        <v>2060</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2316</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -9146,12 +9146,12 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$131</v>
       </c>
       <c r="C262">
-        <f t="shared" ca="1" si="8"/>
-        <v>2061</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2317</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -9159,12 +9159,12 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$132</v>
       </c>
       <c r="C263">
-        <f t="shared" ca="1" si="8"/>
-        <v>2064</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2320</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -9172,12 +9172,12 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$132</v>
       </c>
       <c r="C264">
-        <f t="shared" ca="1" si="8"/>
-        <v>2065</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2321</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -9185,12 +9185,12 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$133</v>
       </c>
       <c r="C265">
-        <f t="shared" ca="1" si="8"/>
-        <v>2080</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2336</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -9198,12 +9198,12 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$133</v>
       </c>
       <c r="C266">
-        <f t="shared" ca="1" si="8"/>
-        <v>2081</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2337</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -9211,12 +9211,12 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$134</v>
       </c>
       <c r="C267">
-        <f t="shared" ca="1" si="8"/>
-        <v>2084</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2340</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -9224,12 +9224,12 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$134</v>
       </c>
       <c r="C268">
-        <f t="shared" ca="1" si="8"/>
-        <v>2085</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2341</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -9237,12 +9237,12 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$135</v>
       </c>
       <c r="C269">
-        <f t="shared" ca="1" si="8"/>
-        <v>2092</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2348</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -9250,12 +9250,12 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$135</v>
       </c>
       <c r="C270">
-        <f t="shared" ca="1" si="8"/>
-        <v>2093</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2349</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -9263,12 +9263,12 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$136</v>
       </c>
       <c r="C271">
-        <f t="shared" ca="1" si="8"/>
-        <v>2096</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2352</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -9276,12 +9276,12 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$136</v>
       </c>
       <c r="C272">
-        <f t="shared" ca="1" si="8"/>
-        <v>2097</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2353</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -9289,12 +9289,12 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$137</v>
       </c>
       <c r="C273">
-        <f t="shared" ca="1" si="8"/>
-        <v>2128</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2384</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -9302,12 +9302,12 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$137</v>
       </c>
       <c r="C274">
-        <f t="shared" ca="1" si="8"/>
-        <v>2129</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2385</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -9315,12 +9315,12 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$138</v>
       </c>
       <c r="C275">
-        <f t="shared" ca="1" si="8"/>
-        <v>2132</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2388</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -9328,12 +9328,12 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$138</v>
       </c>
       <c r="C276">
-        <f t="shared" ca="1" si="8"/>
-        <v>2133</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2389</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -9341,12 +9341,12 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$139</v>
       </c>
       <c r="C277">
-        <f t="shared" ca="1" si="8"/>
-        <v>2140</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2396</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -9354,12 +9354,12 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$139</v>
       </c>
       <c r="C278">
-        <f t="shared" ca="1" si="8"/>
-        <v>2141</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2397</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -9367,12 +9367,12 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$140</v>
       </c>
       <c r="C279">
-        <f t="shared" ca="1" si="8"/>
-        <v>2144</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2400</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -9380,12 +9380,12 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$140</v>
       </c>
       <c r="C280">
-        <f t="shared" ca="1" si="8"/>
-        <v>2145</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2401</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -9393,12 +9393,12 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$141</v>
       </c>
       <c r="C281">
-        <f t="shared" ca="1" si="8"/>
-        <v>2160</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2416</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -9406,12 +9406,12 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$141</v>
       </c>
       <c r="C282">
-        <f t="shared" ca="1" si="8"/>
-        <v>2161</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2417</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -9419,12 +9419,12 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$142</v>
       </c>
       <c r="C283">
-        <f t="shared" ca="1" si="8"/>
-        <v>2164</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2420</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -9432,12 +9432,12 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$142</v>
       </c>
       <c r="C284">
-        <f t="shared" ca="1" si="8"/>
-        <v>2165</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2421</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -9445,12 +9445,12 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$143</v>
       </c>
       <c r="C285">
-        <f t="shared" ca="1" si="8"/>
-        <v>2172</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2428</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -9458,12 +9458,12 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$143</v>
       </c>
       <c r="C286">
-        <f t="shared" ca="1" si="8"/>
-        <v>2173</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2429</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -9471,12 +9471,12 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$144</v>
       </c>
       <c r="C287">
-        <f t="shared" ca="1" si="8"/>
-        <v>2176</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2432</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -9484,12 +9484,12 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$144</v>
       </c>
       <c r="C288">
-        <f t="shared" ca="1" si="8"/>
-        <v>2177</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2433</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -9497,12 +9497,12 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$145</v>
       </c>
       <c r="C289">
-        <f t="shared" ca="1" si="8"/>
-        <v>2240</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2496</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -9510,12 +9510,12 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$145</v>
       </c>
       <c r="C290">
-        <f t="shared" ca="1" si="8"/>
-        <v>2241</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2497</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -9523,12 +9523,12 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$146</v>
       </c>
       <c r="C291">
-        <f t="shared" ca="1" si="8"/>
-        <v>2244</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -9536,12 +9536,12 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$146</v>
       </c>
       <c r="C292">
-        <f t="shared" ca="1" si="8"/>
-        <v>2245</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2501</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -9549,12 +9549,12 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$147</v>
       </c>
       <c r="C293">
-        <f t="shared" ca="1" si="8"/>
-        <v>2252</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2508</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -9562,12 +9562,12 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$147</v>
       </c>
       <c r="C294">
-        <f t="shared" ca="1" si="8"/>
-        <v>2253</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2509</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -9575,12 +9575,12 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$148</v>
       </c>
       <c r="C295">
-        <f t="shared" ca="1" si="8"/>
-        <v>2256</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2512</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -9588,12 +9588,12 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$148</v>
       </c>
       <c r="C296">
-        <f t="shared" ca="1" si="8"/>
-        <v>2257</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2513</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -9601,12 +9601,12 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$149</v>
       </c>
       <c r="C297">
-        <f t="shared" ca="1" si="8"/>
-        <v>2272</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2528</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -9614,12 +9614,12 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$149</v>
       </c>
       <c r="C298">
-        <f t="shared" ca="1" si="8"/>
-        <v>2273</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2529</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -9627,12 +9627,12 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$150</v>
       </c>
       <c r="C299">
-        <f t="shared" ca="1" si="8"/>
-        <v>2276</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2532</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -9640,12 +9640,12 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$150</v>
       </c>
       <c r="C300">
-        <f t="shared" ca="1" si="8"/>
-        <v>2277</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2533</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -9653,12 +9653,12 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$151</v>
       </c>
       <c r="C301">
-        <f t="shared" ca="1" si="8"/>
-        <v>2284</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2540</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -9666,12 +9666,12 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$151</v>
       </c>
       <c r="C302">
-        <f t="shared" ca="1" si="8"/>
-        <v>2285</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2541</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -9679,12 +9679,12 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$152</v>
       </c>
       <c r="C303">
-        <f t="shared" ca="1" si="8"/>
-        <v>2288</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2544</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -9692,12 +9692,12 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$152</v>
       </c>
       <c r="C304">
-        <f t="shared" ca="1" si="8"/>
-        <v>2289</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2545</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -9705,12 +9705,12 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$153</v>
       </c>
       <c r="C305">
-        <f t="shared" ca="1" si="8"/>
-        <v>2320</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2576</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -9718,12 +9718,12 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$153</v>
       </c>
       <c r="C306">
-        <f t="shared" ca="1" si="8"/>
-        <v>2321</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2577</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -9731,12 +9731,12 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$154</v>
       </c>
       <c r="C307">
-        <f t="shared" ca="1" si="8"/>
-        <v>2324</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2580</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -9744,12 +9744,12 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$154</v>
       </c>
       <c r="C308">
-        <f t="shared" ca="1" si="8"/>
-        <v>2325</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2581</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -9757,12 +9757,12 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$155</v>
       </c>
       <c r="C309">
-        <f t="shared" ca="1" si="8"/>
-        <v>2332</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2588</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -9770,12 +9770,12 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$155</v>
       </c>
       <c r="C310">
-        <f t="shared" ca="1" si="8"/>
-        <v>2333</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2589</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -9783,12 +9783,12 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$156</v>
       </c>
       <c r="C311">
-        <f t="shared" ca="1" si="8"/>
-        <v>2336</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2592</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -9796,12 +9796,12 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$156</v>
       </c>
       <c r="C312">
-        <f t="shared" ca="1" si="8"/>
-        <v>2337</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2593</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -9809,12 +9809,12 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$157</v>
       </c>
       <c r="C313">
-        <f t="shared" ca="1" si="8"/>
-        <v>2352</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2608</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -9822,12 +9822,12 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$157</v>
       </c>
       <c r="C314">
-        <f t="shared" ca="1" si="8"/>
-        <v>2353</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2609</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -9835,12 +9835,12 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$158</v>
       </c>
       <c r="C315">
-        <f t="shared" ref="C315:C378" ca="1" si="10">2*INDIRECT(B315)+A315</f>
-        <v>2356</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2612</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -9848,12 +9848,12 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$158</v>
       </c>
       <c r="C316">
-        <f t="shared" ca="1" si="10"/>
-        <v>2357</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2613</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -9861,12 +9861,12 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$159</v>
       </c>
       <c r="C317">
-        <f t="shared" ca="1" si="10"/>
-        <v>2364</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2620</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -9874,12 +9874,12 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$159</v>
       </c>
       <c r="C318">
-        <f t="shared" ca="1" si="10"/>
-        <v>2365</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2621</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -9887,12 +9887,12 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$160</v>
       </c>
       <c r="C319">
-        <f t="shared" ca="1" si="10"/>
-        <v>2368</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2624</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -9900,12 +9900,12 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$160</v>
       </c>
       <c r="C320">
-        <f t="shared" ca="1" si="10"/>
-        <v>2369</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2625</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -9913,12 +9913,12 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$161</v>
       </c>
       <c r="C321">
-        <f t="shared" ca="1" si="10"/>
-        <v>2496</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2752</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -9926,12 +9926,12 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>$C$161</v>
       </c>
       <c r="C322">
-        <f t="shared" ca="1" si="10"/>
-        <v>2497</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2753</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -9939,12 +9939,12 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="str">
-        <f t="shared" ref="B323:B386" si="11">IF(A323&gt;2,ADDRESS(INT(A323/2)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B323:B386" si="10">IF(A323&gt;1,ADDRESS(INT(A323/2)+1,3),ADDRESS(1,6))</f>
         <v>$C$162</v>
       </c>
       <c r="C323">
-        <f t="shared" ca="1" si="10"/>
-        <v>2500</v>
+        <f t="shared" ref="C323:C386" ca="1" si="11">2*INDIRECT(B323)+A323</f>
+        <v>2756</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -9952,12 +9952,12 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$162</v>
       </c>
       <c r="C324">
-        <f t="shared" ca="1" si="10"/>
-        <v>2501</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2757</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -9965,12 +9965,12 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$163</v>
       </c>
       <c r="C325">
-        <f t="shared" ca="1" si="10"/>
-        <v>2508</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2764</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -9978,12 +9978,12 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$163</v>
       </c>
       <c r="C326">
-        <f t="shared" ca="1" si="10"/>
-        <v>2509</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2765</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -9991,12 +9991,12 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$164</v>
       </c>
       <c r="C327">
-        <f t="shared" ca="1" si="10"/>
-        <v>2512</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2768</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -10004,12 +10004,12 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$164</v>
       </c>
       <c r="C328">
-        <f t="shared" ca="1" si="10"/>
-        <v>2513</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2769</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -10017,12 +10017,12 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$165</v>
       </c>
       <c r="C329">
-        <f t="shared" ca="1" si="10"/>
-        <v>2528</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2784</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -10030,12 +10030,12 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$165</v>
       </c>
       <c r="C330">
-        <f t="shared" ca="1" si="10"/>
-        <v>2529</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2785</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -10043,12 +10043,12 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$166</v>
       </c>
       <c r="C331">
-        <f t="shared" ca="1" si="10"/>
-        <v>2532</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2788</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -10056,12 +10056,12 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$166</v>
       </c>
       <c r="C332">
-        <f t="shared" ca="1" si="10"/>
-        <v>2533</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2789</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -10069,12 +10069,12 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$167</v>
       </c>
       <c r="C333">
-        <f t="shared" ca="1" si="10"/>
-        <v>2540</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2796</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -10082,12 +10082,12 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$167</v>
       </c>
       <c r="C334">
-        <f t="shared" ca="1" si="10"/>
-        <v>2541</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2797</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -10095,12 +10095,12 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$168</v>
       </c>
       <c r="C335">
-        <f t="shared" ca="1" si="10"/>
-        <v>2544</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2800</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -10108,12 +10108,12 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$168</v>
       </c>
       <c r="C336">
-        <f t="shared" ca="1" si="10"/>
-        <v>2545</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2801</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -10121,12 +10121,12 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$169</v>
       </c>
       <c r="C337">
-        <f t="shared" ca="1" si="10"/>
-        <v>2576</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2832</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -10134,12 +10134,12 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$169</v>
       </c>
       <c r="C338">
-        <f t="shared" ca="1" si="10"/>
-        <v>2577</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2833</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -10147,12 +10147,12 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$170</v>
       </c>
       <c r="C339">
-        <f t="shared" ca="1" si="10"/>
-        <v>2580</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2836</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -10160,12 +10160,12 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$170</v>
       </c>
       <c r="C340">
-        <f t="shared" ca="1" si="10"/>
-        <v>2581</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2837</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -10173,12 +10173,12 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$171</v>
       </c>
       <c r="C341">
-        <f t="shared" ca="1" si="10"/>
-        <v>2588</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2844</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -10186,12 +10186,12 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$171</v>
       </c>
       <c r="C342">
-        <f t="shared" ca="1" si="10"/>
-        <v>2589</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2845</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -10199,12 +10199,12 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$172</v>
       </c>
       <c r="C343">
-        <f t="shared" ca="1" si="10"/>
-        <v>2592</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2848</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -10212,12 +10212,12 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$172</v>
       </c>
       <c r="C344">
-        <f t="shared" ca="1" si="10"/>
-        <v>2593</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -10225,12 +10225,12 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$173</v>
       </c>
       <c r="C345">
-        <f t="shared" ca="1" si="10"/>
-        <v>2608</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2864</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -10238,12 +10238,12 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$173</v>
       </c>
       <c r="C346">
-        <f t="shared" ca="1" si="10"/>
-        <v>2609</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2865</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -10251,12 +10251,12 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$174</v>
       </c>
       <c r="C347">
-        <f t="shared" ca="1" si="10"/>
-        <v>2612</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2868</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -10264,12 +10264,12 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$174</v>
       </c>
       <c r="C348">
-        <f t="shared" ca="1" si="10"/>
-        <v>2613</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2869</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -10277,12 +10277,12 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$175</v>
       </c>
       <c r="C349">
-        <f t="shared" ca="1" si="10"/>
-        <v>2620</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2876</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -10290,12 +10290,12 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$175</v>
       </c>
       <c r="C350">
-        <f t="shared" ca="1" si="10"/>
-        <v>2621</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2877</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -10303,12 +10303,12 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$176</v>
       </c>
       <c r="C351">
-        <f t="shared" ca="1" si="10"/>
-        <v>2624</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2880</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -10316,12 +10316,12 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$176</v>
       </c>
       <c r="C352">
-        <f t="shared" ca="1" si="10"/>
-        <v>2625</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2881</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -10329,12 +10329,12 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$177</v>
       </c>
       <c r="C353">
-        <f t="shared" ca="1" si="10"/>
-        <v>2688</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2944</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -10342,12 +10342,12 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$177</v>
       </c>
       <c r="C354">
-        <f t="shared" ca="1" si="10"/>
-        <v>2689</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2945</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -10355,12 +10355,12 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$178</v>
       </c>
       <c r="C355">
-        <f t="shared" ca="1" si="10"/>
-        <v>2692</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2948</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -10368,12 +10368,12 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$178</v>
       </c>
       <c r="C356">
-        <f t="shared" ca="1" si="10"/>
-        <v>2693</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2949</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -10381,12 +10381,12 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$179</v>
       </c>
       <c r="C357">
-        <f t="shared" ca="1" si="10"/>
-        <v>2700</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2956</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -10394,12 +10394,12 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$179</v>
       </c>
       <c r="C358">
-        <f t="shared" ca="1" si="10"/>
-        <v>2701</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2957</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -10407,12 +10407,12 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$180</v>
       </c>
       <c r="C359">
-        <f t="shared" ca="1" si="10"/>
-        <v>2704</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2960</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -10420,12 +10420,12 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$180</v>
       </c>
       <c r="C360">
-        <f t="shared" ca="1" si="10"/>
-        <v>2705</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2961</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -10433,12 +10433,12 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$181</v>
       </c>
       <c r="C361">
-        <f t="shared" ca="1" si="10"/>
-        <v>2720</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2976</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -10446,12 +10446,12 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$181</v>
       </c>
       <c r="C362">
-        <f t="shared" ca="1" si="10"/>
-        <v>2721</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2977</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -10459,12 +10459,12 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$182</v>
       </c>
       <c r="C363">
-        <f t="shared" ca="1" si="10"/>
-        <v>2724</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2980</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -10472,12 +10472,12 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$182</v>
       </c>
       <c r="C364">
-        <f t="shared" ca="1" si="10"/>
-        <v>2725</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2981</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -10485,12 +10485,12 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$183</v>
       </c>
       <c r="C365">
-        <f t="shared" ca="1" si="10"/>
-        <v>2732</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2988</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -10498,12 +10498,12 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$183</v>
       </c>
       <c r="C366">
-        <f t="shared" ca="1" si="10"/>
-        <v>2733</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2989</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -10511,12 +10511,12 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$184</v>
       </c>
       <c r="C367">
-        <f t="shared" ca="1" si="10"/>
-        <v>2736</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2992</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -10524,12 +10524,12 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$184</v>
       </c>
       <c r="C368">
-        <f t="shared" ca="1" si="10"/>
-        <v>2737</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2993</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -10537,12 +10537,12 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$185</v>
       </c>
       <c r="C369">
-        <f t="shared" ca="1" si="10"/>
-        <v>2768</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3024</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -10550,12 +10550,12 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$185</v>
       </c>
       <c r="C370">
-        <f t="shared" ca="1" si="10"/>
-        <v>2769</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3025</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -10563,12 +10563,12 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$186</v>
       </c>
       <c r="C371">
-        <f t="shared" ca="1" si="10"/>
-        <v>2772</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3028</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -10576,12 +10576,12 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$186</v>
       </c>
       <c r="C372">
-        <f t="shared" ca="1" si="10"/>
-        <v>2773</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3029</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -10589,12 +10589,12 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$187</v>
       </c>
       <c r="C373">
-        <f t="shared" ca="1" si="10"/>
-        <v>2780</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3036</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -10602,12 +10602,12 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$187</v>
       </c>
       <c r="C374">
-        <f t="shared" ca="1" si="10"/>
-        <v>2781</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3037</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -10615,12 +10615,12 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$188</v>
       </c>
       <c r="C375">
-        <f t="shared" ca="1" si="10"/>
-        <v>2784</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3040</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -10628,12 +10628,12 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$188</v>
       </c>
       <c r="C376">
-        <f t="shared" ca="1" si="10"/>
-        <v>2785</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3041</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -10641,12 +10641,12 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$189</v>
       </c>
       <c r="C377">
-        <f t="shared" ca="1" si="10"/>
-        <v>2800</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3056</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -10654,12 +10654,12 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$189</v>
       </c>
       <c r="C378">
-        <f t="shared" ca="1" si="10"/>
-        <v>2801</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3057</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -10667,12 +10667,12 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$190</v>
       </c>
       <c r="C379">
-        <f t="shared" ref="C379:C442" ca="1" si="12">2*INDIRECT(B379)+A379</f>
-        <v>2804</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3060</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -10680,12 +10680,12 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$190</v>
       </c>
       <c r="C380">
-        <f t="shared" ca="1" si="12"/>
-        <v>2805</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3061</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -10693,12 +10693,12 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$191</v>
       </c>
       <c r="C381">
-        <f t="shared" ca="1" si="12"/>
-        <v>2812</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3068</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -10706,12 +10706,12 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$191</v>
       </c>
       <c r="C382">
-        <f t="shared" ca="1" si="12"/>
-        <v>2813</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3069</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -10719,12 +10719,12 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$192</v>
       </c>
       <c r="C383">
-        <f t="shared" ca="1" si="12"/>
-        <v>2816</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3072</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -10732,12 +10732,12 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$192</v>
       </c>
       <c r="C384">
-        <f t="shared" ca="1" si="12"/>
-        <v>2817</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3073</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -10745,11 +10745,11 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$193</v>
       </c>
       <c r="C385">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3328</v>
       </c>
     </row>
@@ -10758,11 +10758,11 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>$C$193</v>
       </c>
       <c r="C386">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3329</v>
       </c>
     </row>
@@ -10771,11 +10771,11 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="str">
-        <f t="shared" ref="B387:B450" si="13">IF(A387&gt;2,ADDRESS(INT(A387/2)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B387:B450" si="12">IF(A387&gt;1,ADDRESS(INT(A387/2)+1,3),ADDRESS(1,6))</f>
         <v>$C$194</v>
       </c>
       <c r="C387">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C387:C450" ca="1" si="13">2*INDIRECT(B387)+A387</f>
         <v>3332</v>
       </c>
     </row>
@@ -10784,11 +10784,11 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$194</v>
       </c>
       <c r="C388">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3333</v>
       </c>
     </row>
@@ -10797,11 +10797,11 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$195</v>
       </c>
       <c r="C389">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3340</v>
       </c>
     </row>
@@ -10810,11 +10810,11 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$195</v>
       </c>
       <c r="C390">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3341</v>
       </c>
     </row>
@@ -10823,11 +10823,11 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$196</v>
       </c>
       <c r="C391">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3344</v>
       </c>
     </row>
@@ -10836,11 +10836,11 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$196</v>
       </c>
       <c r="C392">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3345</v>
       </c>
     </row>
@@ -10849,11 +10849,11 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$197</v>
       </c>
       <c r="C393">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3360</v>
       </c>
     </row>
@@ -10862,11 +10862,11 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$197</v>
       </c>
       <c r="C394">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3361</v>
       </c>
     </row>
@@ -10875,11 +10875,11 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$198</v>
       </c>
       <c r="C395">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3364</v>
       </c>
     </row>
@@ -10888,11 +10888,11 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$198</v>
       </c>
       <c r="C396">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3365</v>
       </c>
     </row>
@@ -10901,11 +10901,11 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$199</v>
       </c>
       <c r="C397">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3372</v>
       </c>
     </row>
@@ -10914,11 +10914,11 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$199</v>
       </c>
       <c r="C398">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3373</v>
       </c>
     </row>
@@ -10927,11 +10927,11 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$200</v>
       </c>
       <c r="C399">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3376</v>
       </c>
     </row>
@@ -10940,11 +10940,11 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$200</v>
       </c>
       <c r="C400">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3377</v>
       </c>
     </row>
@@ -10953,11 +10953,11 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$201</v>
       </c>
       <c r="C401">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3408</v>
       </c>
     </row>
@@ -10966,11 +10966,11 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$201</v>
       </c>
       <c r="C402">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3409</v>
       </c>
     </row>
@@ -10979,11 +10979,11 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$202</v>
       </c>
       <c r="C403">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3412</v>
       </c>
     </row>
@@ -10992,11 +10992,11 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$202</v>
       </c>
       <c r="C404">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3413</v>
       </c>
     </row>
@@ -11005,11 +11005,11 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$203</v>
       </c>
       <c r="C405">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3420</v>
       </c>
     </row>
@@ -11018,11 +11018,11 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$203</v>
       </c>
       <c r="C406">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3421</v>
       </c>
     </row>
@@ -11031,11 +11031,11 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$204</v>
       </c>
       <c r="C407">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3424</v>
       </c>
     </row>
@@ -11044,11 +11044,11 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$204</v>
       </c>
       <c r="C408">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3425</v>
       </c>
     </row>
@@ -11057,11 +11057,11 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$205</v>
       </c>
       <c r="C409">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3440</v>
       </c>
     </row>
@@ -11070,11 +11070,11 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$205</v>
       </c>
       <c r="C410">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3441</v>
       </c>
     </row>
@@ -11083,11 +11083,11 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$206</v>
       </c>
       <c r="C411">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3444</v>
       </c>
     </row>
@@ -11096,11 +11096,11 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$206</v>
       </c>
       <c r="C412">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3445</v>
       </c>
     </row>
@@ -11109,11 +11109,11 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$207</v>
       </c>
       <c r="C413">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3452</v>
       </c>
     </row>
@@ -11122,11 +11122,11 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$207</v>
       </c>
       <c r="C414">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3453</v>
       </c>
     </row>
@@ -11135,11 +11135,11 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$208</v>
       </c>
       <c r="C415">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3456</v>
       </c>
     </row>
@@ -11148,11 +11148,11 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$208</v>
       </c>
       <c r="C416">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3457</v>
       </c>
     </row>
@@ -11161,11 +11161,11 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$209</v>
       </c>
       <c r="C417">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3520</v>
       </c>
     </row>
@@ -11174,11 +11174,11 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$209</v>
       </c>
       <c r="C418">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3521</v>
       </c>
     </row>
@@ -11187,11 +11187,11 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$210</v>
       </c>
       <c r="C419">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3524</v>
       </c>
     </row>
@@ -11200,11 +11200,11 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$210</v>
       </c>
       <c r="C420">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3525</v>
       </c>
     </row>
@@ -11213,11 +11213,11 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$211</v>
       </c>
       <c r="C421">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3532</v>
       </c>
     </row>
@@ -11226,11 +11226,11 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$211</v>
       </c>
       <c r="C422">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3533</v>
       </c>
     </row>
@@ -11239,11 +11239,11 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$212</v>
       </c>
       <c r="C423">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3536</v>
       </c>
     </row>
@@ -11252,11 +11252,11 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$212</v>
       </c>
       <c r="C424">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3537</v>
       </c>
     </row>
@@ -11265,11 +11265,11 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$213</v>
       </c>
       <c r="C425">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3552</v>
       </c>
     </row>
@@ -11278,11 +11278,11 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$213</v>
       </c>
       <c r="C426">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3553</v>
       </c>
     </row>
@@ -11291,11 +11291,11 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$214</v>
       </c>
       <c r="C427">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3556</v>
       </c>
     </row>
@@ -11304,11 +11304,11 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$214</v>
       </c>
       <c r="C428">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3557</v>
       </c>
     </row>
@@ -11317,11 +11317,11 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$215</v>
       </c>
       <c r="C429">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3564</v>
       </c>
     </row>
@@ -11330,11 +11330,11 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$215</v>
       </c>
       <c r="C430">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3565</v>
       </c>
     </row>
@@ -11343,11 +11343,11 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$216</v>
       </c>
       <c r="C431">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3568</v>
       </c>
     </row>
@@ -11356,11 +11356,11 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$216</v>
       </c>
       <c r="C432">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3569</v>
       </c>
     </row>
@@ -11369,11 +11369,11 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$217</v>
       </c>
       <c r="C433">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3600</v>
       </c>
     </row>
@@ -11382,11 +11382,11 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$217</v>
       </c>
       <c r="C434">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3601</v>
       </c>
     </row>
@@ -11395,11 +11395,11 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$218</v>
       </c>
       <c r="C435">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3604</v>
       </c>
     </row>
@@ -11408,11 +11408,11 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$218</v>
       </c>
       <c r="C436">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3605</v>
       </c>
     </row>
@@ -11421,11 +11421,11 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$219</v>
       </c>
       <c r="C437">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3612</v>
       </c>
     </row>
@@ -11434,11 +11434,11 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$219</v>
       </c>
       <c r="C438">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3613</v>
       </c>
     </row>
@@ -11447,11 +11447,11 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$220</v>
       </c>
       <c r="C439">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3616</v>
       </c>
     </row>
@@ -11460,11 +11460,11 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$220</v>
       </c>
       <c r="C440">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3617</v>
       </c>
     </row>
@@ -11473,11 +11473,11 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$221</v>
       </c>
       <c r="C441">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3632</v>
       </c>
     </row>
@@ -11486,11 +11486,11 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$221</v>
       </c>
       <c r="C442">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3633</v>
       </c>
     </row>
@@ -11499,11 +11499,11 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$222</v>
       </c>
       <c r="C443">
-        <f t="shared" ref="C443:C500" ca="1" si="14">2*INDIRECT(B443)+A443</f>
+        <f t="shared" ca="1" si="13"/>
         <v>3636</v>
       </c>
     </row>
@@ -11512,11 +11512,11 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$222</v>
       </c>
       <c r="C444">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3637</v>
       </c>
     </row>
@@ -11525,11 +11525,11 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$223</v>
       </c>
       <c r="C445">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3644</v>
       </c>
     </row>
@@ -11538,11 +11538,11 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$223</v>
       </c>
       <c r="C446">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3645</v>
       </c>
     </row>
@@ -11551,11 +11551,11 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$224</v>
       </c>
       <c r="C447">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3648</v>
       </c>
     </row>
@@ -11564,11 +11564,11 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$224</v>
       </c>
       <c r="C448">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3649</v>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$225</v>
       </c>
       <c r="C449">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3776</v>
       </c>
     </row>
@@ -11590,11 +11590,11 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>$C$225</v>
       </c>
       <c r="C450">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3777</v>
       </c>
     </row>
@@ -11603,11 +11603,11 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="str">
-        <f t="shared" ref="B451:B500" si="15">IF(A451&gt;2,ADDRESS(INT(A451/2)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B451:B500" si="14">IF(A451&gt;1,ADDRESS(INT(A451/2)+1,3),ADDRESS(1,6))</f>
         <v>$C$226</v>
       </c>
       <c r="C451">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C451:C500" ca="1" si="15">2*INDIRECT(B451)+A451</f>
         <v>3780</v>
       </c>
     </row>
@@ -11616,11 +11616,11 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$226</v>
       </c>
       <c r="C452">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3781</v>
       </c>
     </row>
@@ -11629,11 +11629,11 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$227</v>
       </c>
       <c r="C453">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3788</v>
       </c>
     </row>
@@ -11642,11 +11642,11 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$227</v>
       </c>
       <c r="C454">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3789</v>
       </c>
     </row>
@@ -11655,11 +11655,11 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$228</v>
       </c>
       <c r="C455">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3792</v>
       </c>
     </row>
@@ -11668,11 +11668,11 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$228</v>
       </c>
       <c r="C456">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3793</v>
       </c>
     </row>
@@ -11681,11 +11681,11 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$229</v>
       </c>
       <c r="C457">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3808</v>
       </c>
     </row>
@@ -11694,11 +11694,11 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$229</v>
       </c>
       <c r="C458">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3809</v>
       </c>
     </row>
@@ -11707,11 +11707,11 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$230</v>
       </c>
       <c r="C459">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3812</v>
       </c>
     </row>
@@ -11720,11 +11720,11 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$230</v>
       </c>
       <c r="C460">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3813</v>
       </c>
     </row>
@@ -11733,11 +11733,11 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$231</v>
       </c>
       <c r="C461">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3820</v>
       </c>
     </row>
@@ -11746,11 +11746,11 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$231</v>
       </c>
       <c r="C462">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3821</v>
       </c>
     </row>
@@ -11759,11 +11759,11 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$232</v>
       </c>
       <c r="C463">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3824</v>
       </c>
     </row>
@@ -11772,11 +11772,11 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$232</v>
       </c>
       <c r="C464">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3825</v>
       </c>
     </row>
@@ -11785,11 +11785,11 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$233</v>
       </c>
       <c r="C465">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3856</v>
       </c>
     </row>
@@ -11798,11 +11798,11 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$233</v>
       </c>
       <c r="C466">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3857</v>
       </c>
     </row>
@@ -11811,11 +11811,11 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$234</v>
       </c>
       <c r="C467">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3860</v>
       </c>
     </row>
@@ -11824,11 +11824,11 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$234</v>
       </c>
       <c r="C468">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3861</v>
       </c>
     </row>
@@ -11837,11 +11837,11 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$235</v>
       </c>
       <c r="C469">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3868</v>
       </c>
     </row>
@@ -11850,11 +11850,11 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$235</v>
       </c>
       <c r="C470">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3869</v>
       </c>
     </row>
@@ -11863,11 +11863,11 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$236</v>
       </c>
       <c r="C471">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3872</v>
       </c>
     </row>
@@ -11876,11 +11876,11 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$236</v>
       </c>
       <c r="C472">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3873</v>
       </c>
     </row>
@@ -11889,11 +11889,11 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$237</v>
       </c>
       <c r="C473">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3888</v>
       </c>
     </row>
@@ -11902,11 +11902,11 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$237</v>
       </c>
       <c r="C474">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3889</v>
       </c>
     </row>
@@ -11915,11 +11915,11 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$238</v>
       </c>
       <c r="C475">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3892</v>
       </c>
     </row>
@@ -11928,11 +11928,11 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$238</v>
       </c>
       <c r="C476">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3893</v>
       </c>
     </row>
@@ -11941,11 +11941,11 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$239</v>
       </c>
       <c r="C477">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3900</v>
       </c>
     </row>
@@ -11954,11 +11954,11 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$239</v>
       </c>
       <c r="C478">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3901</v>
       </c>
     </row>
@@ -11967,11 +11967,11 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$240</v>
       </c>
       <c r="C479">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3904</v>
       </c>
     </row>
@@ -11980,11 +11980,11 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$240</v>
       </c>
       <c r="C480">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3905</v>
       </c>
     </row>
@@ -11993,11 +11993,11 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$241</v>
       </c>
       <c r="C481">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3968</v>
       </c>
     </row>
@@ -12006,11 +12006,11 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$241</v>
       </c>
       <c r="C482">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3969</v>
       </c>
     </row>
@@ -12019,11 +12019,11 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$242</v>
       </c>
       <c r="C483">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3972</v>
       </c>
     </row>
@@ -12032,11 +12032,11 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$242</v>
       </c>
       <c r="C484">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3973</v>
       </c>
     </row>
@@ -12045,11 +12045,11 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$243</v>
       </c>
       <c r="C485">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3980</v>
       </c>
     </row>
@@ -12058,11 +12058,11 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$243</v>
       </c>
       <c r="C486">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3981</v>
       </c>
     </row>
@@ -12071,11 +12071,11 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$244</v>
       </c>
       <c r="C487">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3984</v>
       </c>
     </row>
@@ -12084,11 +12084,11 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$244</v>
       </c>
       <c r="C488">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3985</v>
       </c>
     </row>
@@ -12097,11 +12097,11 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$245</v>
       </c>
       <c r="C489">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4000</v>
       </c>
     </row>
@@ -12110,11 +12110,11 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$245</v>
       </c>
       <c r="C490">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4001</v>
       </c>
     </row>
@@ -12123,11 +12123,11 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$246</v>
       </c>
       <c r="C491">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4004</v>
       </c>
     </row>
@@ -12136,11 +12136,11 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$246</v>
       </c>
       <c r="C492">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4005</v>
       </c>
     </row>
@@ -12149,11 +12149,11 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$247</v>
       </c>
       <c r="C493">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4012</v>
       </c>
     </row>
@@ -12162,11 +12162,11 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$247</v>
       </c>
       <c r="C494">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4013</v>
       </c>
     </row>
@@ -12175,11 +12175,11 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$248</v>
       </c>
       <c r="C495">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4016</v>
       </c>
     </row>
@@ -12188,11 +12188,11 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$248</v>
       </c>
       <c r="C496">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4017</v>
       </c>
     </row>
@@ -12201,11 +12201,11 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$249</v>
       </c>
       <c r="C497">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4048</v>
       </c>
     </row>
@@ -12214,11 +12214,11 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$249</v>
       </c>
       <c r="C498">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4049</v>
       </c>
     </row>
@@ -12227,11 +12227,11 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$250</v>
       </c>
       <c r="C499">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4052</v>
       </c>
     </row>
@@ -12240,11 +12240,11 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>$C$250</v>
       </c>
       <c r="C500">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4053</v>
       </c>
     </row>
